--- a/RedCoder.xlsx
+++ b/RedCoder.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -26,17 +26,30 @@
   <si>
     <t xml:space="preserve">20 February 2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/contest/1491/problem/C - 1700 - 43 Minutes
+https://codeforces.com/contest/1368/problem/D - 1700 - 45 Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 February 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,16 +72,19 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -595,392 +611,401 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="40.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
